--- a/smartfridge_risks.xlsx
+++ b/smartfridge_risks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,132 +436,176 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk</t>
+          <t>Risque</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Probability (Low/Med/High)</t>
+          <t>Probabilité</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Impact (Low/Med/High)</t>
+          <t>Impact</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation Strategy</t>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI misidentifies products (false detection)</t>
+          <t>Mauvaise reconnaissance produit par l'IA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Moyenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Élevé (perte confiance utilisateur)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Supervised learning phase + manual correction in app</t>
+          <t>Phase apprentissage supervisée + correction manuelle utilisateur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dependency on E.Leclerc Drive API</t>
+          <t>Dépendance à un seul Drive (ex : Leclerc)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Moyenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Élevé (killer feature KO)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Develop generic multi-retailer integration early</t>
+          <t>Prévoir intégration multi-retailers dès la conception (Carrefour, Intermarché)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Privacy &amp; RGPD concerns (camera data leak)</t>
+          <t>Rejet utilisateur (caméra perçue comme intrusive)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Élevée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Élevé (frein adoption marché)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Edge AI processing + clear data policy</t>
+          <t>Communication claire : aucune image stockée, IA locale uniquement</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hardware integration failure</t>
+          <t>Problèmes RGPD / conformité données</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Élevée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Élevé (risque légal)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Test phase with modular components before integration</t>
+          <t>Edge AI : aucune image brute envoyée au cloud, chiffrement, Privacy Officer</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Budget overrun</t>
+          <t>Perte de connexion Wi-Fi entre frigo et cloud</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Élevée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Moyen (perte synchro panier auto)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Budget buffer 10% + priority-based features</t>
+          <t>Cache local + re-sync dès que Wi-Fi revient</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dépassement budget matériel (coûts IoT)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Moyenne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Moyen (retarde le prototype)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Buffer financier 10% + achat alternatif composants</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Délai ou blocage négociation accès catalogue Drive</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Moyenne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Élevé (bloque le go-to-market)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Business Dev dédié très tôt dans le projet</t>
         </is>
       </c>
     </row>
